--- a/data/trans_dic/P16B11-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,71; 100,0</t>
+          <t>85,95; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,37; 100,0</t>
+          <t>77,64; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,84; 98,62</t>
+          <t>87,88; 98,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,62; 100,0</t>
+          <t>86,98; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,19; 100,0</t>
+          <t>83,47; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,19; 100,0</t>
+          <t>91,59; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,15; 100,0</t>
+          <t>93,92; 100,0</t>
         </is>
       </c>
     </row>
@@ -905,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,58; 98,68</t>
+          <t>87,0; 98,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,34; 100,0</t>
+          <t>95,98; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,37; 99,04</t>
+          <t>91,53; 99,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,62; 100,0</t>
+          <t>97,42; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,93; 99,58</t>
+          <t>96,08; 99,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,43; 99,01</t>
+          <t>90,11; 99,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,69; 100,0</t>
+          <t>93,93; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1051,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,33; 100,0</t>
+          <t>97,97; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1145,7 +1146,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,23; 100,0</t>
+          <t>96,74; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1160,7 +1161,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,79; 100,0</t>
+          <t>98,14; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96,24; 99,39</t>
+          <t>96,26; 99,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>98,29; 100,0</t>
+          <t>98,59; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,78; 100,0</t>
+          <t>98,13; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,38</t>
+          <t>96,39; 99,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100,0</t>
+          <t>98,72; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,79; 100,0</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,95; 98,89</t>
+          <t>96,06; 98,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,99</t>
+          <t>96,67; 98,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,75; 99,87</t>
+          <t>98,9; 99,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>98,72; 100,0</t>
+          <t>98,75; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,83; 98,65</t>
+          <t>96,81; 98,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>99,24; 99,92</t>
+          <t>99,23; 99,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>99,33; 100,0</t>
+          <t>99,35; 100,0</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la tensión arterial  fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>49293</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69285</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52286</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28680</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28644</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32725</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77973</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>97928</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44106; 51318</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>67146; 69285</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50286; 52286</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23701; 30525</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26373; 28644</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30328; 32725</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71924; 80927</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95721; 97928</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82840; 85011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45772</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54979</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53508</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21254</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32121</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25718</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67026</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87100</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>79226</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41308; 47491</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53031; 54979</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51540; 53508</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19236; 21254</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30010; 32121</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22279; 26691</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>62963; 68745</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85065; 87100</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>75326; 80199</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61004</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>132291</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>81782</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23545</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56789</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34549</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>84549</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>189080</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>116331</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55483; 62939</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>127909; 133268</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>79917; 81782</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21678; 23545</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54777; 56789</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32198; 34549</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79921; 86481</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>185148; 190057</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114322; 116331</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>199296</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>213132</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>204841</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>94095</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81484</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85349</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>293391</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>294617</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>290190</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>194248; 201326</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>211067; 213132</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>202914; 204841</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88289; 97005</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77479; 82486</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>83253; 85349</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>286635; 297277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>289623; 295619</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>288208; 290190</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>42332</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>92865</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>104818</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82810</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>188099</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>142330</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>125143</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>280964</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>247149</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40493; 42332</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>90772; 92865</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>102975; 104818</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>80852; 82810</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>182969; 189142</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>140198; 142330</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>123208; 125143</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>276774; 282006</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>245139; 247149</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4720</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>300048</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>346099</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>291824</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>304769</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>350060</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>292817</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3277; 4720</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2525; 3960</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>227; 993</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>293828; 303343</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>342193; 347086</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>287430; 292913</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>298779; 308048</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>346542; 351047</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>287740; 293906</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>402418</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>566511</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>498229</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>550433</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>733237</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>612495</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>952850</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1299747</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1110724</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>395584; 407409</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>561596; 567488</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>496300; 498229</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>542661; 555510</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>728138; 735289</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>606894; 614557</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>942153; 959604</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1293740; 1302754</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1105553; 1112786</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B11-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
